--- a/Assignment 3/Clustering Data - OptDigits.xlsx
+++ b/Assignment 3/Clustering Data - OptDigits.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K-Means" sheetId="1" r:id="rId1"/>
     <sheet name="EM" sheetId="2" r:id="rId2"/>
     <sheet name="PCA" sheetId="3" r:id="rId3"/>
-    <sheet name="Randomized Projection" sheetId="4" r:id="rId4"/>
-    <sheet name="InfoGainAttributeEval" sheetId="5" r:id="rId5"/>
+    <sheet name="NN" sheetId="6" r:id="rId4"/>
+    <sheet name="Randomized Projection" sheetId="4" r:id="rId5"/>
+    <sheet name="InfoGainAttributeEval" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="23">
   <si>
     <t>K</t>
   </si>
@@ -76,6 +77,30 @@
   </si>
   <si>
     <t>InfoGainAttributeEval - Thresh: 40%</t>
+  </si>
+  <si>
+    <t>Error %</t>
+  </si>
+  <si>
+    <t>K-Means</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>No Clustering</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>No Dimensionality Reduction</t>
   </si>
 </sst>
 </file>
@@ -122,15 +147,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -455,26 +486,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,15 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +733,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,25 +797,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,6 +849,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +994,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.339805825242718"/>
+          <c:y val="0.0201005025125628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -732,15 +1038,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'K-Means'!$H$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No Reduction</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -769,10 +1067,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'K-Means'!$G$10:$G$27</c:f>
+              <c:f>'K-Means'!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -811,31 +1109,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'K-Means'!$H$10:$H$27</c:f>
+              <c:f>'K-Means'!$H$10:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>26686.8409574209</c:v>
                 </c:pt>
@@ -875,20 +1158,394 @@
                 <c:pt idx="12">
                   <c:v>13564.83009</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>13219.677663</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13007.713913</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12679.10881</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12567.56553</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12397.6480708898</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PCA (R = 0.9)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$G$31:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$H$31:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1118.60245318897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>994.574535106563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921.455575667575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>866.282016025603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>808.770549142581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>779.2077634879749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>749.657801126864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>722.884564397825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>703.058602038325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>688.947124973783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>671.119391878365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>646.431660460587</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>637.456011879638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RP (P = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$G$52:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$H$52:$H$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3966.13619461692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3314.81263538047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3038.86453131111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2821.31534559313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2580.64421191329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2382.63575247583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2260.74495971129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2133.65830177545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2042.1775438269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1976.026582913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1934.60438211016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1875.02047326338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1863.92563189349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>InfoGain (Thresh = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$M$52:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$N$52:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>17748.0150779759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15165.5165663863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13671.4522508343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12579.9759484879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11564.8446842757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10848.3815041887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10213.6971382715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9482.98325814704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9118.44884288056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8727.97611410084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8543.78064599664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8460.05634233493</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8111.50209069305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,11 +1560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2080398912"/>
-        <c:axId val="2071429456"/>
+        <c:axId val="1722704160"/>
+        <c:axId val="1722905392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2080398912"/>
+        <c:axId val="1722704160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +1591,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -944,7 +1601,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -968,7 +1625,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1002,7 +1659,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1014,12 +1671,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071429456"/>
+        <c:crossAx val="1722905392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071429456"/>
+        <c:axId val="1722905392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1703,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1056,7 +1713,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1064,14 +1721,14 @@
                   <a:t>Sum of squared</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> error</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1100" b="1">
+                <a:endParaRPr lang="en-US" sz="1400" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1093,7 +1750,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1127,7 +1784,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1139,7 +1796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080398912"/>
+        <c:crossAx val="1722704160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1151,6 +1808,44 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.221938716215947"/>
+          <c:y val="0.0815037567540238"/>
+          <c:w val="0.662865919900853"/>
+          <c:h val="0.0570820741174336"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1408,11 +2103,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130932352"/>
-        <c:axId val="2122250432"/>
+        <c:axId val="1699691600"/>
+        <c:axId val="1722543728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130932352"/>
+        <c:axId val="1699691600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,12 +2215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122250432"/>
+        <c:crossAx val="1722543728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122250432"/>
+        <c:axId val="1722543728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +2328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130932352"/>
+        <c:crossAx val="1699691600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1902,11 +2597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109150544"/>
-        <c:axId val="-2135669392"/>
+        <c:axId val="1699682336"/>
+        <c:axId val="1723310784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109150544"/>
+        <c:axId val="1699682336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,12 +2708,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135669392"/>
+        <c:crossAx val="1723310784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2135669392"/>
+        <c:axId val="1723310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109150544"/>
+        <c:crossAx val="1699682336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2394,11 +3089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2107713104"/>
-        <c:axId val="-2130869888"/>
+        <c:axId val="1723358080"/>
+        <c:axId val="1723366352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2107713104"/>
+        <c:axId val="1723358080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,12 +3200,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130869888"/>
+        <c:crossAx val="1723366352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130869888"/>
+        <c:axId val="1723366352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +3325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107713104"/>
+        <c:crossAx val="1723358080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2937,11 +3632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2096927920"/>
-        <c:axId val="-2107695104"/>
+        <c:axId val="1723445312"/>
+        <c:axId val="1723453552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2096927920"/>
+        <c:axId val="1723445312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,12 +3743,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107695104"/>
+        <c:crossAx val="1723453552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2107695104"/>
+        <c:axId val="1723453552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096927920"/>
+        <c:crossAx val="1723445312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3460,11 +4155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095246464"/>
-        <c:axId val="-2096036304"/>
+        <c:axId val="1723504752"/>
+        <c:axId val="1723512432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095246464"/>
+        <c:axId val="1723504752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3545,12 +4240,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096036304"/>
+        <c:crossAx val="1723512432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2096036304"/>
+        <c:axId val="1723512432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3657,7 +4352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095246464"/>
+        <c:crossAx val="1723504752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3957,11 +4652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1665895456"/>
-        <c:axId val="1666760768"/>
+        <c:axId val="1723564784"/>
+        <c:axId val="1723573024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1665895456"/>
+        <c:axId val="1723564784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,12 +4763,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666760768"/>
+        <c:crossAx val="1723573024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1666760768"/>
+        <c:axId val="1723573024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,7 +4875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1665895456"/>
+        <c:crossAx val="1723564784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4480,11 +5175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1679883248"/>
-        <c:axId val="1665431488"/>
+        <c:axId val="2114628544"/>
+        <c:axId val="2089519792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1679883248"/>
+        <c:axId val="2114628544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,12 +5286,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1665431488"/>
+        <c:crossAx val="2089519792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1665431488"/>
+        <c:axId val="2089519792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4716,7 +5411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679883248"/>
+        <c:crossAx val="2114628544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4844,15 +5539,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'K-Means'!$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% INCORRECTLY CLUSTERED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No Reduction</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -4881,10 +5568,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'K-Means'!$G$10:$G$27</c:f>
+              <c:f>'K-Means'!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -4923,31 +5610,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'K-Means'!$I$10:$I$27</c:f>
+              <c:f>'K-Means'!$I$10:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>89.822</c:v>
                 </c:pt>
@@ -4987,20 +5659,396 @@
                 <c:pt idx="12">
                   <c:v>21.726</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PCA (R = 0.9)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'K-Means'!$G$30:$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.7331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.4128</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34.53</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39.5374</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>39.466</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$I$31:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>89.82210000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.30249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.08540000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.3132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.5196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.3416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.7082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.0605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.1032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.9609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.1851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.4093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RP (P = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$G$52:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$I$52:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>89.82210000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.0534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.4377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.7865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.4057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.1957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.6121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.3915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.5801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.7936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.9075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>InfoGain (Thresh = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$M$52:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$O$52:$O$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>89.82210000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.9288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.4448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.7829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.8434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.2633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.8826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.1281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.7438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.7829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.1637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.1139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.9324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5015,11 +6063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092200448"/>
-        <c:axId val="2089815664"/>
+        <c:axId val="1681509024"/>
+        <c:axId val="1722849360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092200448"/>
+        <c:axId val="1681509024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5046,7 +6094,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5056,7 +6104,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5080,7 +6128,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -5114,7 +6162,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -5126,12 +6174,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089815664"/>
+        <c:crossAx val="1722849360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2089815664"/>
+        <c:axId val="1722849360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,7 +6206,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5168,7 +6216,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5192,7 +6240,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -5226,7 +6274,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -5238,7 +6286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092200448"/>
+        <c:crossAx val="1681509024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5250,6 +6298,35 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5378,15 +6455,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>EM!$K$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Log Likelihood</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No Reduction</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -5415,10 +6484,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>EM!$J$9:$J$26</c:f>
+              <c:f>EM!$J$9:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -5457,31 +6526,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>EM!$K$9:$K$26</c:f>
+              <c:f>EM!$K$9:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-111.00195</c:v>
                 </c:pt>
@@ -5521,20 +6575,394 @@
                 <c:pt idx="12">
                   <c:v>-67.54267</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>-71.66</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-73.22016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-64.66929</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-68.8949</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-68.10901</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PCA (R = 0.9)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>EM!$J$30:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>EM!$K$30:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-50.37372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45.198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-44.39944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-43.88768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-43.54835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-42.9164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-42.46769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-42.01425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-41.78281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-41.26261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-40.62865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-40.33976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-39.93815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RP (P = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>EM!$J$62:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>EM!$K$62:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-137.411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-135.31486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-134.1278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-133.01426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-132.20385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-131.10839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-130.5679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-129.95271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-129.46833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-129.15085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-128.80945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-128.49221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-128.25576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>InfoGain (Thresh = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>EM!$R$63:$R$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>EM!$S$63:$S$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-80.63639000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-76.5797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-73.76592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-69.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-71.82968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-68.65434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-67.01041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-66.30324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-64.93264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-67.34852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-66.10055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-65.46557</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-65.62367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,11 +6977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115344560"/>
-        <c:axId val="2115182096"/>
+        <c:axId val="1727008416"/>
+        <c:axId val="1727010192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115344560"/>
+        <c:axId val="1727008416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5580,7 +7008,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5590,7 +7018,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5614,7 +7042,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -5627,6 +7055,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5648,7 +7077,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -5660,12 +7089,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115182096"/>
+        <c:crossAx val="1727010192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115182096"/>
+        <c:axId val="1727010192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,7 +7121,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5702,7 +7131,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5726,7 +7155,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -5761,7 +7190,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -5773,7 +7202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115344560"/>
+        <c:crossAx val="1727008416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5785,6 +7214,35 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5907,15 +7365,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>EM!$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Incorrect</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No Reduction</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -5944,10 +7394,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>EM!$J$9:$J$26</c:f>
+              <c:f>EM!$J$9:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -5986,31 +7436,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>EM!$L$9:$L$26</c:f>
+              <c:f>EM!$L$9:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>89.82210000000001</c:v>
                 </c:pt>
@@ -6050,20 +7485,394 @@
                 <c:pt idx="12">
                   <c:v>34.3594</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>38.1851</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.669</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44.9644</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.5943</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40.2313</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PCA (R = 0.9)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>EM!$J$30:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>EM!$L$30:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>89.82210000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.4164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.4128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.8861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.8078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.2918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.1566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.4199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.2242</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.0285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.8114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.9359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RP (P = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>EM!$J$62:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>EM!$L$62:$L$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>89.82210000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.0356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.7438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.2384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.2954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.7046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.9822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.7189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.0854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.4021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.2847</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>InfoGain (Thresh = 0.4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>EM!$R$63:$R$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>EM!$T$63:$T$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>89.82210000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.2313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.80070000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.8149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.1815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.9181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.0569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.1281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.1068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.8897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.9502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6078,11 +7887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091350208"/>
-        <c:axId val="2080584288"/>
+        <c:axId val="1727066240"/>
+        <c:axId val="1727074496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091350208"/>
+        <c:axId val="1727066240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6109,7 +7918,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6119,7 +7928,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6143,7 +7952,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -6177,7 +7986,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6189,12 +7998,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080584288"/>
+        <c:crossAx val="1727074496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2080584288"/>
+        <c:axId val="1727074496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6221,7 +8030,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6231,7 +8040,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6255,7 +8064,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -6289,7 +8098,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6301,7 +8110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091350208"/>
+        <c:crossAx val="1727066240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6313,6 +8122,35 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6570,11 +8408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147049952"/>
-        <c:axId val="2086270016"/>
+        <c:axId val="1701415584"/>
+        <c:axId val="1697728672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147049952"/>
+        <c:axId val="1701415584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6681,12 +8519,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086270016"/>
+        <c:crossAx val="1697728672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2086270016"/>
+        <c:axId val="1697728672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6807,7 +8645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147049952"/>
+        <c:crossAx val="1701415584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7075,11 +8913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096251088"/>
-        <c:axId val="2096840000"/>
+        <c:axId val="1695485888"/>
+        <c:axId val="1698392160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096251088"/>
+        <c:axId val="1695485888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7187,12 +9025,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096840000"/>
+        <c:crossAx val="1698392160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096840000"/>
+        <c:axId val="1698392160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7312,7 +9150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096251088"/>
+        <c:crossAx val="1695485888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7718,11 +9556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140034608"/>
-        <c:axId val="-2139390144"/>
+        <c:axId val="2114242000"/>
+        <c:axId val="-2113676768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140034608"/>
+        <c:axId val="2114242000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7826,12 +9664,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139390144"/>
+        <c:crossAx val="-2113676768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2139390144"/>
+        <c:axId val="-2113676768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7935,7 +9773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140034608"/>
+        <c:crossAx val="2114242000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8204,11 +10042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142687808"/>
-        <c:axId val="-2136066624"/>
+        <c:axId val="-2113758560"/>
+        <c:axId val="-2113722640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142687808"/>
+        <c:axId val="-2113758560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8315,12 +10153,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136066624"/>
+        <c:crossAx val="-2113722640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136066624"/>
+        <c:axId val="-2113722640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8427,7 +10265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142687808"/>
+        <c:crossAx val="-2113758560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8715,11 +10553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091756624"/>
-        <c:axId val="-2137688368"/>
+        <c:axId val="1722244416"/>
+        <c:axId val="1699294208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091756624"/>
+        <c:axId val="1722244416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8826,12 +10664,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137688368"/>
+        <c:crossAx val="1699294208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137688368"/>
+        <c:axId val="1699294208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8938,7 +10776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091756624"/>
+        <c:crossAx val="1722244416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17903,16 +19741,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>197556</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17933,16 +19771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>282223</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17969,7 +19807,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>282222</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -17977,7 +19815,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17998,16 +19836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>603956</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>476955</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18667,10 +20505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G6:K27"/>
+  <dimension ref="G6:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="125" zoomScaleNormal="65" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:H19"/>
+    <sheetView topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18681,65 +20519,69 @@
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="14.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <v>26686.8409574209</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <v>89.822000000000003</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="11">
         <v>0.12</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G11" s="20">
+      <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>23685.299900000002</v>
       </c>
       <c r="I11" s="2">
@@ -18748,15 +20590,15 @@
       <c r="J11" s="2">
         <v>0.27</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G12" s="20">
+      <c r="G12" s="14">
         <v>3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>21553.63751</v>
       </c>
       <c r="I12" s="2">
@@ -18765,15 +20607,15 @@
       <c r="J12" s="2">
         <v>0.67</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G13" s="20">
+      <c r="G13" s="14">
         <v>4</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>20145.448</v>
       </c>
       <c r="I13" s="2">
@@ -18782,15 +20624,15 @@
       <c r="J13" s="2">
         <v>0.43</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G14" s="20">
+      <c r="G14" s="14">
         <v>5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>18824.083999999999</v>
       </c>
       <c r="I14" s="2">
@@ -18799,15 +20641,15 @@
       <c r="J14" s="2">
         <v>0.43</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G15" s="20">
+      <c r="G15" s="14">
         <v>6</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>17539.411400000001</v>
       </c>
       <c r="I15" s="2">
@@ -18816,15 +20658,15 @@
       <c r="J15" s="2">
         <v>0.63</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G16" s="20">
+      <c r="G16" s="14">
         <v>7</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>16454.58598</v>
       </c>
       <c r="I16" s="2">
@@ -18833,15 +20675,15 @@
       <c r="J16" s="2">
         <v>0.76</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G17" s="20">
+      <c r="G17" s="14">
         <v>8</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>15753.318480100101</v>
       </c>
       <c r="I17" s="2">
@@ -18850,15 +20692,15 @@
       <c r="J17" s="2">
         <v>0.91</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G18" s="20">
+      <c r="G18" s="14">
         <v>9</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>15276.7350503</v>
       </c>
       <c r="I18" s="2">
@@ -18867,15 +20709,15 @@
       <c r="J18" s="2">
         <v>1.35</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G19" s="20">
+      <c r="G19" s="14">
         <v>10</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>14559.79579292</v>
       </c>
       <c r="I19" s="2">
@@ -18884,15 +20726,15 @@
       <c r="J19" s="2">
         <v>1.22</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G20" s="20">
+      <c r="G20" s="14">
         <v>11</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>14287.645</v>
       </c>
       <c r="I20" s="2">
@@ -18901,15 +20743,15 @@
       <c r="J20" s="2">
         <v>1.24</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G21" s="20">
+      <c r="G21" s="14">
         <v>12</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>13977.0388839552</v>
       </c>
       <c r="I21" s="2">
@@ -18918,115 +20760,850 @@
       <c r="J21" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G22" s="20">
+    <row r="22" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="15">
         <v>13</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>13564.830089999999</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="6">
         <v>21.725999999999999</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="6">
         <v>1.29</v>
       </c>
       <c r="K22" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G23" s="20">
-        <v>14</v>
-      </c>
-      <c r="H23" s="6">
-        <v>13219.677663</v>
-      </c>
-      <c r="I23" s="2">
-        <v>24.7331</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="K23" s="7">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="23" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G24" s="20">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6">
-        <v>13007.713913</v>
-      </c>
-      <c r="I24" s="2">
-        <v>29.412800000000001</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="K24" s="7">
-        <v>19</v>
-      </c>
+      <c r="G24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G25" s="20">
-        <v>16</v>
-      </c>
-      <c r="H25" s="6">
-        <v>12679.10881</v>
-      </c>
-      <c r="I25" s="2">
-        <v>34.53</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="K25" s="7">
-        <v>35</v>
-      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G26" s="20">
-        <v>17</v>
-      </c>
-      <c r="H26" s="6">
-        <v>12567.56553</v>
-      </c>
-      <c r="I26" s="2">
-        <v>39.537399999999998</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2.63</v>
-      </c>
-      <c r="K26" s="7">
-        <v>35</v>
-      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="21">
-        <v>18</v>
-      </c>
-      <c r="H27" s="8">
-        <v>12397.6480708898</v>
-      </c>
-      <c r="I27" s="9">
-        <v>39.466000000000001</v>
-      </c>
-      <c r="J27" s="9">
-        <v>3.23</v>
-      </c>
-      <c r="K27" s="10">
-        <v>41</v>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1118.60245318897</v>
+      </c>
+      <c r="I31" s="11">
+        <v>89.822100000000006</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G32" s="14">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>994.57453510656296</v>
+      </c>
+      <c r="I32" s="2">
+        <v>80.302499999999995</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="K32" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G33" s="14">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
+        <v>921.45557566757498</v>
+      </c>
+      <c r="I33" s="2">
+        <v>71.085400000000007</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="K33" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G34" s="14">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3">
+        <v>866.28201602560296</v>
+      </c>
+      <c r="I34" s="2">
+        <v>61.21</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K34" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G35" s="14">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>808.77054914258099</v>
+      </c>
+      <c r="I35" s="2">
+        <v>52.313200000000002</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K35" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G36" s="14">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <v>779.20776348797494</v>
+      </c>
+      <c r="I36" s="2">
+        <v>44.519599999999997</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="K36" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G37" s="14">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>749.657801126864</v>
+      </c>
+      <c r="I37" s="2">
+        <v>39.3416</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="K37" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G38" s="14">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3">
+        <v>722.88456439782499</v>
+      </c>
+      <c r="I38" s="2">
+        <v>36.708199999999998</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="K38" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G39" s="14">
+        <v>9</v>
+      </c>
+      <c r="H39" s="3">
+        <v>703.05860203832503</v>
+      </c>
+      <c r="I39" s="2">
+        <v>33.060499999999998</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="K39" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G40" s="14">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3">
+        <v>688.94712497378305</v>
+      </c>
+      <c r="I40" s="2">
+        <v>31.103200000000001</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K40" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G41" s="14">
+        <v>11</v>
+      </c>
+      <c r="H41" s="3">
+        <v>671.11939187836504</v>
+      </c>
+      <c r="I41" s="2">
+        <v>30.960899999999999</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="K41" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G42" s="14">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3">
+        <v>646.43166046058695</v>
+      </c>
+      <c r="I42" s="2">
+        <v>33.185099999999998</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="K42" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="15">
+        <v>13</v>
+      </c>
+      <c r="H43" s="5">
+        <v>637.45601187963803</v>
+      </c>
+      <c r="I43" s="6">
+        <v>30.409300000000002</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="K43" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="32"/>
+      <c r="M45" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="41"/>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="44"/>
+    </row>
+    <row r="47" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="44"/>
+    </row>
+    <row r="48" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="38"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="47"/>
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G49" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="26"/>
+      <c r="M49" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="26"/>
+    </row>
+    <row r="50" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="29"/>
+    </row>
+    <row r="51" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G52" s="13">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10">
+        <v>3966.13619461692</v>
+      </c>
+      <c r="I52" s="11">
+        <v>89.822100000000006</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K52" s="12">
+        <v>1</v>
+      </c>
+      <c r="M52" s="13">
+        <v>1</v>
+      </c>
+      <c r="N52" s="10">
+        <v>17748.015077975899</v>
+      </c>
+      <c r="O52" s="11">
+        <v>89.822100000000006</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G53" s="14">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3">
+        <v>3314.8126353804701</v>
+      </c>
+      <c r="I53" s="2">
+        <v>80.053399999999996</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>14</v>
+      </c>
+      <c r="M53" s="14">
+        <v>2</v>
+      </c>
+      <c r="N53" s="3">
+        <v>15165.516566386301</v>
+      </c>
+      <c r="O53" s="2">
+        <v>79.928799999999995</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G54" s="14">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3038.8645313111101</v>
+      </c>
+      <c r="I54" s="2">
+        <v>72.437700000000007</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="K54" s="4">
+        <v>24</v>
+      </c>
+      <c r="M54" s="14">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
+        <v>13671.4522508343</v>
+      </c>
+      <c r="O54" s="2">
+        <v>70.444800000000001</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G55" s="14">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2821.3153455931301</v>
+      </c>
+      <c r="I55" s="2">
+        <v>64.0214</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="K55" s="4">
+        <v>62</v>
+      </c>
+      <c r="M55" s="14">
+        <v>4</v>
+      </c>
+      <c r="N55" s="3">
+        <v>12579.9759484879</v>
+      </c>
+      <c r="O55" s="2">
+        <v>60.782899999999998</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G56" s="14">
+        <v>5</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2580.6442119132898</v>
+      </c>
+      <c r="I56" s="2">
+        <v>54.786499999999997</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="K56" s="4">
+        <v>57</v>
+      </c>
+      <c r="M56" s="14">
+        <v>5</v>
+      </c>
+      <c r="N56" s="3">
+        <v>11564.8446842757</v>
+      </c>
+      <c r="O56" s="2">
+        <v>53.843400000000003</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G57" s="14">
+        <v>6</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2382.63575247583</v>
+      </c>
+      <c r="I57" s="2">
+        <v>46.405700000000003</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K57" s="4">
+        <v>49</v>
+      </c>
+      <c r="M57" s="14">
+        <v>6</v>
+      </c>
+      <c r="N57" s="3">
+        <v>10848.381504188699</v>
+      </c>
+      <c r="O57" s="2">
+        <v>46.263300000000001</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G58" s="14">
+        <v>7</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2260.74495971129</v>
+      </c>
+      <c r="I58" s="2">
+        <v>38.274000000000001</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="K58" s="4">
+        <v>70</v>
+      </c>
+      <c r="M58" s="14">
+        <v>7</v>
+      </c>
+      <c r="N58" s="3">
+        <v>10213.6971382715</v>
+      </c>
+      <c r="O58" s="2">
+        <v>37.882599999999996</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G59" s="14">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2133.6583017754501</v>
+      </c>
+      <c r="I59" s="2">
+        <v>30.195699999999999</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K59" s="4">
+        <v>20</v>
+      </c>
+      <c r="M59" s="14">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
+        <v>9482.98325814704</v>
+      </c>
+      <c r="O59" s="2">
+        <v>29.1281</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G60" s="14">
+        <v>9</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2042.1775438269001</v>
+      </c>
+      <c r="I60" s="2">
+        <v>28.612100000000002</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="K60" s="4">
+        <v>22</v>
+      </c>
+      <c r="M60" s="14">
+        <v>9</v>
+      </c>
+      <c r="N60" s="3">
+        <v>9118.4488428805598</v>
+      </c>
+      <c r="O60" s="2">
+        <v>26.7438</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G61" s="14">
+        <v>10</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1976.0265829130001</v>
+      </c>
+      <c r="I61" s="2">
+        <v>25.391500000000001</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="K61" s="4">
+        <v>33</v>
+      </c>
+      <c r="M61" s="14">
+        <v>10</v>
+      </c>
+      <c r="N61" s="3">
+        <v>8727.9761141008403</v>
+      </c>
+      <c r="O61" s="2">
+        <v>20.782900000000001</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G62" s="14">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1934.60438211016</v>
+      </c>
+      <c r="I62" s="2">
+        <v>27.580100000000002</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K62" s="4">
+        <v>43</v>
+      </c>
+      <c r="M62" s="14">
+        <v>11</v>
+      </c>
+      <c r="N62" s="3">
+        <v>8543.7806459966396</v>
+      </c>
+      <c r="O62" s="2">
+        <v>24.163699999999999</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G63" s="14">
+        <v>12</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1875.0204732633799</v>
+      </c>
+      <c r="I63" s="2">
+        <v>27.793600000000001</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="K63" s="4">
+        <v>69</v>
+      </c>
+      <c r="M63" s="14">
+        <v>12</v>
+      </c>
+      <c r="N63" s="3">
+        <v>8460.0563423349304</v>
+      </c>
+      <c r="O63" s="2">
+        <v>33.113900000000001</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="15">
+        <v>13</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1863.9256318934899</v>
+      </c>
+      <c r="I64" s="6">
+        <v>30.907499999999999</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="K64" s="7">
+        <v>51</v>
+      </c>
+      <c r="M64" s="15">
+        <v>13</v>
+      </c>
+      <c r="N64" s="5">
+        <v>8111.5020906930504</v>
+      </c>
+      <c r="O64" s="6">
+        <v>28.932400000000001</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="M45:Q48"/>
+    <mergeCell ref="M49:Q50"/>
     <mergeCell ref="G7:K8"/>
+    <mergeCell ref="G24:K27"/>
+    <mergeCell ref="G28:K29"/>
+    <mergeCell ref="G45:K48"/>
+    <mergeCell ref="G49:K50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19035,10 +21612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J5:N26"/>
+  <dimension ref="J5:V75"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:N7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19052,60 +21629,60 @@
   <sheetData>
     <row r="5" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J9" s="19">
+      <c r="J9" s="13">
         <v>1</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="10">
         <v>-111.00194999999999</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="11">
         <v>89.822100000000006</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="11">
         <v>0.38</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J10" s="20">
+      <c r="J10" s="14">
         <v>2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>-95.590220000000002</v>
       </c>
       <c r="L10" s="2">
@@ -19114,15 +21691,15 @@
       <c r="M10" s="2">
         <v>3.32</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J11" s="19">
+      <c r="J11" s="13">
         <v>3</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>-95.618300000000005</v>
       </c>
       <c r="L11" s="2">
@@ -19131,15 +21708,15 @@
       <c r="M11" s="2">
         <v>5.29</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J12" s="20">
+      <c r="J12" s="14">
         <v>4</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>-88.457239999999999</v>
       </c>
       <c r="L12" s="2">
@@ -19148,15 +21725,15 @@
       <c r="M12" s="2">
         <v>6.86</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J13" s="19">
+      <c r="J13" s="13">
         <v>5</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>-82.72466</v>
       </c>
       <c r="L13" s="2">
@@ -19165,15 +21742,15 @@
       <c r="M13" s="2">
         <v>11.02</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J14" s="20">
+      <c r="J14" s="14">
         <v>6</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>-80.675030000000007</v>
       </c>
       <c r="L14" s="2">
@@ -19182,15 +21759,15 @@
       <c r="M14" s="2">
         <v>15.34</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J15" s="19">
+      <c r="J15" s="13">
         <v>7</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>-73.048950000000005</v>
       </c>
       <c r="L15" s="2">
@@ -19199,15 +21776,15 @@
       <c r="M15" s="2">
         <v>15.08</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J16" s="20">
+      <c r="J16" s="14">
         <v>8</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>-80.239339999999999</v>
       </c>
       <c r="L16" s="2">
@@ -19216,15 +21793,15 @@
       <c r="M16" s="2">
         <v>18.5</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J17" s="19">
+      <c r="J17" s="13">
         <v>9</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="3">
         <v>-79.003699999999995</v>
       </c>
       <c r="L17" s="2">
@@ -19233,15 +21810,15 @@
       <c r="M17" s="2">
         <v>15.86</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J18" s="20">
+      <c r="J18" s="14">
         <v>10</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>-71.317359999999994</v>
       </c>
       <c r="L18" s="2">
@@ -19250,15 +21827,15 @@
       <c r="M18" s="2">
         <v>14.54</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J19" s="19">
+      <c r="J19" s="13">
         <v>11</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>-73.799530000000004</v>
       </c>
       <c r="L19" s="2">
@@ -19267,15 +21844,15 @@
       <c r="M19" s="2">
         <v>20.05</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J20" s="20">
+      <c r="J20" s="14">
         <v>12</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>-71.595290000000006</v>
       </c>
       <c r="L20" s="2">
@@ -19284,15 +21861,15 @@
       <c r="M20" s="2">
         <v>19.88</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J21" s="19">
+      <c r="J21" s="13">
         <v>13</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>-67.542670000000001</v>
       </c>
       <c r="L21" s="2">
@@ -19301,98 +21878,835 @@
       <c r="M21" s="2">
         <v>19.88</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J22" s="20">
-        <v>14</v>
-      </c>
-      <c r="K22" s="6">
-        <v>-71.66</v>
-      </c>
-      <c r="L22" s="2">
-        <v>38.185099999999998</v>
-      </c>
-      <c r="M22" s="2">
-        <v>26.8</v>
-      </c>
-      <c r="N22" s="7">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="22" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J23" s="19">
-        <v>15</v>
-      </c>
-      <c r="K23" s="6">
-        <v>-73.220160000000007</v>
-      </c>
-      <c r="L23" s="2">
-        <v>27.669</v>
-      </c>
-      <c r="M23" s="2">
-        <v>26.36</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
+      <c r="J23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J24" s="20">
-        <v>16</v>
-      </c>
-      <c r="K24" s="6">
-        <v>-64.669290000000004</v>
-      </c>
-      <c r="L24" s="2">
-        <v>44.964399999999998</v>
-      </c>
-      <c r="M24" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J25" s="19">
-        <v>17</v>
-      </c>
-      <c r="K25" s="6">
-        <v>-68.894900000000007</v>
-      </c>
-      <c r="L25" s="2">
-        <v>33.594299999999997</v>
-      </c>
-      <c r="M25" s="2">
-        <v>31.69</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="21">
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+    </row>
+    <row r="28" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>-50.373719999999999</v>
+      </c>
+      <c r="L30" s="11">
+        <v>89.822100000000006</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="N30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J31" s="14">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-45.198</v>
+      </c>
+      <c r="L31" s="2">
+        <v>88.416399999999996</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="N31" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J32" s="14">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-44.399439999999998</v>
+      </c>
+      <c r="L32" s="2">
+        <v>80.605000000000004</v>
+      </c>
+      <c r="M32" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="N32" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J33" s="14">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-43.887680000000003</v>
+      </c>
+      <c r="L33" s="2">
+        <v>79.412800000000004</v>
+      </c>
+      <c r="M33" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="N33" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="14">
+        <v>5</v>
+      </c>
+      <c r="K34" s="3">
+        <v>-43.548349999999999</v>
+      </c>
+      <c r="L34" s="2">
+        <v>71.886099999999999</v>
+      </c>
+      <c r="M34" s="2">
+        <v>7.36</v>
+      </c>
+      <c r="N34" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J35" s="14">
+        <v>6</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-42.916400000000003</v>
+      </c>
+      <c r="L35" s="2">
+        <v>63.8078</v>
+      </c>
+      <c r="M35" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="N35" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J36" s="14">
+        <v>7</v>
+      </c>
+      <c r="K36" s="3">
+        <v>-42.467689999999997</v>
+      </c>
+      <c r="L36" s="2">
+        <v>58.291800000000002</v>
+      </c>
+      <c r="M36" s="2">
+        <v>8.93</v>
+      </c>
+      <c r="N36" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J37" s="14">
+        <v>8</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-42.014249999999997</v>
+      </c>
+      <c r="L37" s="2">
+        <v>56.156599999999997</v>
+      </c>
+      <c r="M37" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="N37" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J38" s="14">
+        <v>9</v>
+      </c>
+      <c r="K38" s="3">
+        <v>-41.782809999999998</v>
+      </c>
+      <c r="L38" s="2">
+        <v>52.419899999999998</v>
+      </c>
+      <c r="M38" s="2">
+        <v>12.53</v>
+      </c>
+      <c r="N38" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J39" s="14">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3">
+        <v>-41.262610000000002</v>
+      </c>
+      <c r="L39" s="2">
+        <v>47.224200000000003</v>
+      </c>
+      <c r="M39" s="2">
+        <v>13.06</v>
+      </c>
+      <c r="N39" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J40" s="14">
+        <v>11</v>
+      </c>
+      <c r="K40" s="3">
+        <v>-40.62865</v>
+      </c>
+      <c r="L40" s="2">
+        <v>42.028500000000001</v>
+      </c>
+      <c r="M40" s="2">
+        <v>22.69</v>
+      </c>
+      <c r="N40" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J41" s="14">
+        <v>12</v>
+      </c>
+      <c r="K41" s="3">
+        <v>-40.339759999999998</v>
+      </c>
+      <c r="L41" s="2">
+        <v>42.811399999999999</v>
+      </c>
+      <c r="M41" s="2">
+        <v>15.31</v>
+      </c>
+      <c r="N41" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="15">
+        <v>13</v>
+      </c>
+      <c r="K42" s="5">
+        <v>-39.93815</v>
+      </c>
+      <c r="L42" s="6">
+        <v>32.935899999999997</v>
+      </c>
+      <c r="M42" s="6">
+        <v>26.18</v>
+      </c>
+      <c r="N42" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="32"/>
+    </row>
+    <row r="56" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+      <c r="R56" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="50"/>
+    </row>
+    <row r="57" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J57" s="33"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="35"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="53"/>
+    </row>
+    <row r="58" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="38"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="53"/>
+    </row>
+    <row r="59" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="26"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="56"/>
+    </row>
+    <row r="60" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="29"/>
+      <c r="R60" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="26"/>
+    </row>
+    <row r="61" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="27"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="29"/>
+    </row>
+    <row r="62" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="13">
+        <v>1</v>
+      </c>
+      <c r="K62" s="10">
+        <v>-137.411</v>
+      </c>
+      <c r="L62" s="11">
+        <v>89.822100000000006</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="N62" s="12">
+        <v>1</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J63" s="14">
+        <v>2</v>
+      </c>
+      <c r="K63" s="3">
+        <v>-135.31486000000001</v>
+      </c>
+      <c r="L63" s="2">
+        <v>80.035600000000002</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="N63" s="4">
+        <v>24</v>
+      </c>
+      <c r="R63" s="13">
+        <v>1</v>
+      </c>
+      <c r="S63" s="10">
+        <v>-80.636390000000006</v>
+      </c>
+      <c r="T63" s="11">
+        <v>89.822100000000006</v>
+      </c>
+      <c r="U63" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="V63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J64" s="14">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3">
+        <v>-134.12780000000001</v>
+      </c>
+      <c r="L64" s="2">
+        <v>71.743799999999993</v>
+      </c>
+      <c r="M64" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="N64" s="4">
+        <v>34</v>
+      </c>
+      <c r="R64" s="14">
+        <v>2</v>
+      </c>
+      <c r="S64" s="3">
+        <v>-76.579700000000003</v>
+      </c>
+      <c r="T64" s="2">
+        <v>80.231300000000005</v>
+      </c>
+      <c r="U64" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="V64" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J65" s="14">
+        <v>4</v>
+      </c>
+      <c r="K65" s="3">
+        <v>-133.01426000000001</v>
+      </c>
+      <c r="L65" s="2">
+        <v>63.238399999999999</v>
+      </c>
+      <c r="M65" s="2">
+        <v>6.87</v>
+      </c>
+      <c r="N65" s="4">
+        <v>41</v>
+      </c>
+      <c r="R65" s="14">
+        <v>3</v>
+      </c>
+      <c r="S65" s="3">
+        <v>-73.765919999999994</v>
+      </c>
+      <c r="T65" s="2">
+        <v>70.800700000000006</v>
+      </c>
+      <c r="U65" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="V65" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J66" s="14">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
+        <v>-132.20384999999999</v>
+      </c>
+      <c r="L66" s="2">
+        <v>57.295400000000001</v>
+      </c>
+      <c r="M66" s="2">
+        <v>7.31</v>
+      </c>
+      <c r="N66" s="4">
+        <v>19</v>
+      </c>
+      <c r="R66" s="14">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
+        <v>-69</v>
+      </c>
+      <c r="T66" s="2">
+        <v>61.814900000000002</v>
+      </c>
+      <c r="U66" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="V66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J67" s="14">
+        <v>6</v>
+      </c>
+      <c r="K67" s="3">
+        <v>-131.10839000000001</v>
+      </c>
+      <c r="L67" s="2">
+        <v>47.704599999999999</v>
+      </c>
+      <c r="M67" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N67" s="4">
+        <v>21</v>
+      </c>
+      <c r="R67" s="14">
+        <v>5</v>
+      </c>
+      <c r="S67" s="3">
+        <v>-71.829679999999996</v>
+      </c>
+      <c r="T67" s="2">
+        <v>54.1815</v>
+      </c>
+      <c r="U67" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="V67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J68" s="14">
+        <v>7</v>
+      </c>
+      <c r="K68" s="3">
+        <v>-130.56790000000001</v>
+      </c>
+      <c r="L68" s="2">
+        <v>38.576500000000003</v>
+      </c>
+      <c r="M68" s="2">
+        <v>9.56</v>
+      </c>
+      <c r="N68" s="4">
+        <v>55</v>
+      </c>
+      <c r="R68" s="14">
+        <v>6</v>
+      </c>
+      <c r="S68" s="3">
+        <v>-68.654340000000005</v>
+      </c>
+      <c r="T68" s="2">
+        <v>47.918100000000003</v>
+      </c>
+      <c r="U68" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="V68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J69" s="14">
+        <v>8</v>
+      </c>
+      <c r="K69" s="3">
+        <v>-129.95271</v>
+      </c>
+      <c r="L69" s="2">
+        <v>29.982199999999999</v>
+      </c>
+      <c r="M69" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="N69" s="4">
+        <v>57</v>
+      </c>
+      <c r="R69" s="14">
+        <v>7</v>
+      </c>
+      <c r="S69" s="3">
+        <v>-67.010409999999993</v>
+      </c>
+      <c r="T69" s="2">
+        <v>39.056899999999999</v>
+      </c>
+      <c r="U69" s="2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="V69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J70" s="14">
+        <v>9</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-129.46833000000001</v>
+      </c>
+      <c r="L70" s="2">
+        <v>28.718900000000001</v>
+      </c>
+      <c r="M70" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="N70" s="4">
+        <v>15</v>
+      </c>
+      <c r="R70" s="14">
+        <v>8</v>
+      </c>
+      <c r="S70" s="3">
+        <v>-66.303240000000002</v>
+      </c>
+      <c r="T70" s="2">
+        <v>32.152999999999999</v>
+      </c>
+      <c r="U70" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="V70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J71" s="14">
+        <v>10</v>
+      </c>
+      <c r="K71" s="3">
+        <v>-129.15084999999999</v>
+      </c>
+      <c r="L71" s="2">
+        <v>26.0854</v>
+      </c>
+      <c r="M71" s="2">
+        <v>17.66</v>
+      </c>
+      <c r="N71" s="4">
         <v>18</v>
       </c>
-      <c r="K26" s="8">
-        <v>-68.109009999999998</v>
-      </c>
-      <c r="L26" s="9">
-        <v>40.231299999999997</v>
-      </c>
-      <c r="M26" s="9">
-        <v>35.46</v>
-      </c>
-      <c r="N26" s="10">
+      <c r="R71" s="14">
+        <v>9</v>
+      </c>
+      <c r="S71" s="3">
+        <v>-64.932640000000006</v>
+      </c>
+      <c r="T71" s="2">
+        <v>29.1281</v>
+      </c>
+      <c r="U71" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="V71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J72" s="14">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-128.80945</v>
+      </c>
+      <c r="L72" s="2">
+        <v>22.402100000000001</v>
+      </c>
+      <c r="M72" s="2">
+        <v>13.05</v>
+      </c>
+      <c r="N72" s="4">
+        <v>26</v>
+      </c>
+      <c r="R72" s="14">
+        <v>10</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-67.348519999999994</v>
+      </c>
+      <c r="T72" s="2">
+        <v>15.1068</v>
+      </c>
+      <c r="U72" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="V72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="10:22" x14ac:dyDescent="0.2">
+      <c r="J73" s="14">
+        <v>12</v>
+      </c>
+      <c r="K73" s="3">
+        <v>-128.49221</v>
+      </c>
+      <c r="L73" s="2">
+        <v>25.284700000000001</v>
+      </c>
+      <c r="M73" s="2">
+        <v>17.88</v>
+      </c>
+      <c r="N73" s="4">
+        <v>44</v>
+      </c>
+      <c r="R73" s="14">
+        <v>11</v>
+      </c>
+      <c r="S73" s="3">
+        <v>-66.100549999999998</v>
+      </c>
+      <c r="T73" s="2">
+        <v>20.889700000000001</v>
+      </c>
+      <c r="U73" s="2">
+        <v>10.16</v>
+      </c>
+      <c r="V73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="15">
+        <v>13</v>
+      </c>
+      <c r="K74" s="5">
+        <v>-128.25576000000001</v>
+      </c>
+      <c r="L74" s="6">
+        <v>26.547999999999998</v>
+      </c>
+      <c r="M74" s="6">
+        <v>26.45</v>
+      </c>
+      <c r="N74" s="7">
+        <v>95</v>
+      </c>
+      <c r="R74" s="14">
+        <v>12</v>
+      </c>
+      <c r="S74" s="3">
+        <v>-65.46557</v>
+      </c>
+      <c r="T74" s="2">
+        <v>26.547999999999998</v>
+      </c>
+      <c r="U74" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="V74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="10:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="15">
+        <v>13</v>
+      </c>
+      <c r="S75" s="5">
+        <v>-65.623670000000004</v>
+      </c>
+      <c r="T75" s="6">
+        <v>23.950199999999999</v>
+      </c>
+      <c r="U75" s="6">
+        <v>10.98</v>
+      </c>
+      <c r="V75" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="R56:V59"/>
+    <mergeCell ref="R60:V61"/>
     <mergeCell ref="J6:N7"/>
+    <mergeCell ref="J23:N26"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="J55:N58"/>
+    <mergeCell ref="J59:N60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19403,8 +22717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="D42" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:Q22"/>
+    <sheetView topLeftCell="D2" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19424,157 +22738,157 @@
   <sheetData>
     <row r="2" spans="5:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="M3" s="23" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="M3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="5:17" ht="34" x14ac:dyDescent="0.4">
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="K4" s="38" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="K4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="5:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="5:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="5:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="M7" s="32" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="M7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="5:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="5:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <v>1118.60245318897</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <v>89.822100000000006</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <v>0.02</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="12">
         <v>1</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="13">
         <v>1</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="10">
         <v>-50.373719999999999</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="11">
         <v>89.822100000000006</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="11">
         <v>0.15</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E11" s="20">
+      <c r="E11" s="14">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>994.57453510656296</v>
       </c>
       <c r="G11" s="2">
@@ -19583,13 +22897,13 @@
       <c r="H11" s="2">
         <v>0.17</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>22</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="14">
         <v>2</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <v>-45.198</v>
       </c>
       <c r="O11" s="2">
@@ -19598,15 +22912,15 @@
       <c r="P11" s="2">
         <v>1.82</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E12" s="20">
+      <c r="E12" s="14">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>921.45557566757498</v>
       </c>
       <c r="G12" s="2">
@@ -19615,13 +22929,13 @@
       <c r="H12" s="2">
         <v>0.44</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>42</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="14">
         <v>3</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>-44.399439999999998</v>
       </c>
       <c r="O12" s="2">
@@ -19630,15 +22944,15 @@
       <c r="P12" s="2">
         <v>6.09</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E13" s="20">
+      <c r="E13" s="14">
         <v>4</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>866.28201602560296</v>
       </c>
       <c r="G13" s="2">
@@ -19647,13 +22961,13 @@
       <c r="H13" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>21</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="14">
         <v>4</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>-43.887680000000003</v>
       </c>
       <c r="O13" s="2">
@@ -19662,15 +22976,15 @@
       <c r="P13" s="2">
         <v>7.48</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="4">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E14" s="20">
+      <c r="E14" s="14">
         <v>5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>808.77054914258099</v>
       </c>
       <c r="G14" s="2">
@@ -19679,13 +22993,13 @@
       <c r="H14" s="2">
         <v>0.26</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>17</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="14">
         <v>5</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>-43.548349999999999</v>
       </c>
       <c r="O14" s="2">
@@ -19694,15 +23008,15 @@
       <c r="P14" s="2">
         <v>7.36</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E15" s="20">
+      <c r="E15" s="14">
         <v>6</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>779.20776348797494</v>
       </c>
       <c r="G15" s="2">
@@ -19711,13 +23025,13 @@
       <c r="H15" s="2">
         <v>0.39</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>24</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="14">
         <v>6</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>-42.916400000000003</v>
       </c>
       <c r="O15" s="2">
@@ -19726,15 +23040,15 @@
       <c r="P15" s="2">
         <v>8.4</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E16" s="20">
+      <c r="E16" s="14">
         <v>7</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>749.657801126864</v>
       </c>
       <c r="G16" s="2">
@@ -19743,13 +23057,13 @@
       <c r="H16" s="2">
         <v>0.79</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>44</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="14">
         <v>7</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>-42.467689999999997</v>
       </c>
       <c r="O16" s="2">
@@ -19758,15 +23072,15 @@
       <c r="P16" s="2">
         <v>8.93</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="4">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E17" s="20">
+      <c r="E17" s="14">
         <v>8</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>722.88456439782499</v>
       </c>
       <c r="G17" s="2">
@@ -19775,13 +23089,13 @@
       <c r="H17" s="2">
         <v>0.62</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>30</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="14">
         <v>8</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>-42.014249999999997</v>
       </c>
       <c r="O17" s="2">
@@ -19790,15 +23104,15 @@
       <c r="P17" s="2">
         <v>15.3</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E18" s="20">
+      <c r="E18" s="14">
         <v>9</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>703.05860203832503</v>
       </c>
       <c r="G18" s="2">
@@ -19807,13 +23121,13 @@
       <c r="H18" s="2">
         <v>0.64</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>29</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="14">
         <v>9</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="3">
         <v>-41.782809999999998</v>
       </c>
       <c r="O18" s="2">
@@ -19822,15 +23136,15 @@
       <c r="P18" s="2">
         <v>12.53</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="4">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E19" s="20">
+      <c r="E19" s="14">
         <v>10</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>688.94712497378305</v>
       </c>
       <c r="G19" s="2">
@@ -19839,13 +23153,13 @@
       <c r="H19" s="2">
         <v>0.8</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>34</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="14">
         <v>10</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="3">
         <v>-41.262610000000002</v>
       </c>
       <c r="O19" s="2">
@@ -19854,15 +23168,15 @@
       <c r="P19" s="2">
         <v>13.06</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="4">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E20" s="20">
+      <c r="E20" s="14">
         <v>11</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>671.11939187836504</v>
       </c>
       <c r="G20" s="2">
@@ -19871,13 +23185,13 @@
       <c r="H20" s="2">
         <v>0.65</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>26</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="14">
         <v>11</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="3">
         <v>-40.62865</v>
       </c>
       <c r="O20" s="2">
@@ -19886,15 +23200,15 @@
       <c r="P20" s="2">
         <v>22.69</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E21" s="20">
+      <c r="E21" s="14">
         <v>12</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>646.43166046058695</v>
       </c>
       <c r="G21" s="2">
@@ -19903,13 +23217,13 @@
       <c r="H21" s="2">
         <v>0.77</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>32</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="14">
         <v>12</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>-40.339759999999998</v>
       </c>
       <c r="O21" s="2">
@@ -19918,39 +23232,39 @@
       <c r="P21" s="2">
         <v>15.31</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="4">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="5:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="21">
+      <c r="E22" s="15">
         <v>13</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <v>637.45601187963803</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>30.409300000000002</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>0.78</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="7">
         <v>31</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="15">
         <v>13</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="5">
         <v>-39.93815</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="6">
         <v>32.935899999999997</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="6">
         <v>26.18</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="7">
         <v>56</v>
       </c>
     </row>
@@ -19968,10 +23282,211 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G2:Q12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="7:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+    </row>
+    <row r="4" spans="7:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="69"/>
+      <c r="I4" s="21">
+        <v>7.0580999999999996</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="66">
+        <v>30.77</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="7:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="64"/>
+      <c r="I5" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="72"/>
+    </row>
+    <row r="6" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="62"/>
+      <c r="I6" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="H7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="78">
+        <v>8.4222999999999999</v>
+      </c>
+      <c r="J7" s="74">
+        <v>22.34</v>
+      </c>
+      <c r="K7" s="79">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="L7" s="78">
+        <v>26.42</v>
+      </c>
+      <c r="M7" s="74">
+        <v>3.9739</v>
+      </c>
+      <c r="N7" s="78">
+        <v>26.16</v>
+      </c>
+    </row>
+    <row r="8" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="H8" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="61">
+        <v>12.159000000000001</v>
+      </c>
+      <c r="J8" s="75">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="K8" s="80">
+        <v>3.5587</v>
+      </c>
+      <c r="L8" s="61">
+        <v>23.92</v>
+      </c>
+      <c r="M8" s="75">
+        <v>5.4566999999999997</v>
+      </c>
+      <c r="N8" s="61">
+        <v>23.32</v>
+      </c>
+    </row>
+    <row r="9" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="63">
+        <v>9.6084999999999994</v>
+      </c>
+      <c r="J9" s="76">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="K9" s="81">
+        <v>2.4318</v>
+      </c>
+      <c r="L9" s="63">
+        <v>25.68</v>
+      </c>
+      <c r="M9" s="76">
+        <v>7.7698999999999998</v>
+      </c>
+      <c r="N9" s="63">
+        <v>22.99</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="E40" zoomScale="88" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView zoomScale="88" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19990,154 +23505,154 @@
   <sheetData>
     <row r="4" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="N5" s="23" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="N5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="25"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="4:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="N9" s="32" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="N9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="4:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D12" s="19">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="10">
         <v>3966.13619461692</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <v>89.822100000000006</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="12">
         <v>1</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="13">
         <v>1</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="10">
         <v>-137.411</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="11">
         <v>89.822100000000006</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="11">
         <v>0.12</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D13" s="20">
+      <c r="D13" s="14">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>3314.8126353804701</v>
       </c>
       <c r="F13" s="2">
@@ -20146,13 +23661,13 @@
       <c r="G13" s="2">
         <v>0.1</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>14</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="14">
         <v>2</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3">
         <v>-135.31486000000001</v>
       </c>
       <c r="P13" s="2">
@@ -20161,15 +23676,15 @@
       <c r="Q13" s="2">
         <v>1.62</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D14" s="20">
+      <c r="D14" s="14">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>3038.8645313111101</v>
       </c>
       <c r="F14" s="2">
@@ -20178,13 +23693,13 @@
       <c r="G14" s="2">
         <v>0.22</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>24</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="14">
         <v>3</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="3">
         <v>-134.12780000000001</v>
       </c>
       <c r="P14" s="2">
@@ -20193,15 +23708,15 @@
       <c r="Q14" s="2">
         <v>3.88</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="4">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D15" s="20">
+      <c r="D15" s="14">
         <v>4</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>2821.3153455931301</v>
       </c>
       <c r="F15" s="2">
@@ -20210,13 +23725,13 @@
       <c r="G15" s="2">
         <v>0.69</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>62</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="14">
         <v>4</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <v>-133.01426000000001</v>
       </c>
       <c r="P15" s="2">
@@ -20225,15 +23740,15 @@
       <c r="Q15" s="2">
         <v>6.87</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D16" s="20">
+      <c r="D16" s="14">
         <v>5</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>2580.6442119132898</v>
       </c>
       <c r="F16" s="2">
@@ -20242,13 +23757,13 @@
       <c r="G16" s="2">
         <v>0.79</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>57</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="14">
         <v>5</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>-132.20384999999999</v>
       </c>
       <c r="P16" s="2">
@@ -20257,15 +23772,15 @@
       <c r="Q16" s="2">
         <v>7.31</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D17" s="20">
+      <c r="D17" s="14">
         <v>6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>2382.63575247583</v>
       </c>
       <c r="F17" s="2">
@@ -20274,13 +23789,13 @@
       <c r="G17" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>49</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="14">
         <v>6</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="3">
         <v>-131.10839000000001</v>
       </c>
       <c r="P17" s="2">
@@ -20289,15 +23804,15 @@
       <c r="Q17" s="2">
         <v>12.2</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>7</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>2260.74495971129</v>
       </c>
       <c r="F18" s="2">
@@ -20306,13 +23821,13 @@
       <c r="G18" s="2">
         <v>1.21</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>70</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="14">
         <v>7</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="3">
         <v>-130.56790000000001</v>
       </c>
       <c r="P18" s="2">
@@ -20321,15 +23836,15 @@
       <c r="Q18" s="2">
         <v>9.56</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D19" s="20">
+      <c r="D19" s="14">
         <v>8</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>2133.6583017754501</v>
       </c>
       <c r="F19" s="2">
@@ -20338,13 +23853,13 @@
       <c r="G19" s="2">
         <v>0.4</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>20</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="14">
         <v>8</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="3">
         <v>-129.95271</v>
       </c>
       <c r="P19" s="2">
@@ -20353,15 +23868,15 @@
       <c r="Q19" s="2">
         <v>11.6</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="4">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D20" s="20">
+      <c r="D20" s="14">
         <v>9</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>2042.1775438269001</v>
       </c>
       <c r="F20" s="2">
@@ -20370,13 +23885,13 @@
       <c r="G20" s="2">
         <v>0.44</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>22</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="14">
         <v>9</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="3">
         <v>-129.46833000000001</v>
       </c>
       <c r="P20" s="2">
@@ -20385,15 +23900,15 @@
       <c r="Q20" s="2">
         <v>10.85</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D21" s="20">
+      <c r="D21" s="14">
         <v>10</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>1976.0265829130001</v>
       </c>
       <c r="F21" s="2">
@@ -20402,13 +23917,13 @@
       <c r="G21" s="2">
         <v>0.71</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>33</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="14">
         <v>10</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>-129.15084999999999</v>
       </c>
       <c r="P21" s="2">
@@ -20417,15 +23932,15 @@
       <c r="Q21" s="2">
         <v>17.66</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D22" s="20">
+      <c r="D22" s="14">
         <v>11</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>1934.60438211016</v>
       </c>
       <c r="F22" s="2">
@@ -20434,13 +23949,13 @@
       <c r="G22" s="2">
         <v>0.96</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>43</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="14">
         <v>11</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="3">
         <v>-128.80945</v>
       </c>
       <c r="P22" s="2">
@@ -20449,15 +23964,15 @@
       <c r="Q22" s="2">
         <v>13.05</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="4">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D23" s="20">
+      <c r="D23" s="14">
         <v>12</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>1875.0204732633799</v>
       </c>
       <c r="F23" s="2">
@@ -20466,13 +23981,13 @@
       <c r="G23" s="2">
         <v>1.64</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>69</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="14">
         <v>12</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="3">
         <v>-128.49221</v>
       </c>
       <c r="P23" s="2">
@@ -20481,39 +23996,39 @@
       <c r="Q23" s="2">
         <v>17.88</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="4">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="21">
+      <c r="D24" s="15">
         <v>13</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <v>1863.9256318934899</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>30.907499999999999</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>1.34</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <v>51</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="15">
         <v>13</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="5">
         <v>-128.25576000000001</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="6">
         <v>26.547999999999998</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="6">
         <v>26.45</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="7">
         <v>95</v>
       </c>
     </row>
@@ -20529,12 +24044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="50" workbookViewId="0">
-      <selection activeCell="N15" activeCellId="1" sqref="L15:L28 N15:N28"/>
+    <sheetView topLeftCell="C4" zoomScale="50" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20605,102 +24120,102 @@
       <c r="P12" s="56"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="L13" s="32" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="L13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="37"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="19">
+      <c r="D16" s="13">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="10">
         <v>17748.015077975899</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <v>89.822100000000006</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <v>0.02</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="13">
         <v>1</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="10">
         <v>-80.636390000000006</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="11">
         <v>89.822100000000006</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="11">
         <v>0.11</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="20">
+      <c r="D17" s="14">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>15165.516566386301</v>
       </c>
       <c r="F17" s="2">
@@ -20709,13 +24224,13 @@
       <c r="G17" s="2">
         <v>0.08</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>11</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="14">
         <v>2</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="3">
         <v>-76.579700000000003</v>
       </c>
       <c r="N17" s="2">
@@ -20724,15 +24239,15 @@
       <c r="O17" s="2">
         <v>1.45</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>13671.4522508343</v>
       </c>
       <c r="F18" s="2">
@@ -20741,13 +24256,13 @@
       <c r="G18" s="2">
         <v>0.25</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>28</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="14">
         <v>3</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
         <v>-73.765919999999994</v>
       </c>
       <c r="N18" s="2">
@@ -20756,15 +24271,15 @@
       <c r="O18" s="2">
         <v>2.2200000000000002</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D19" s="20">
+      <c r="D19" s="14">
         <v>4</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>12579.9759484879</v>
       </c>
       <c r="F19" s="2">
@@ -20773,13 +24288,13 @@
       <c r="G19" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>24</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="14">
         <v>4</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3">
         <v>-69</v>
       </c>
       <c r="N19" s="2">
@@ -20788,15 +24303,15 @@
       <c r="O19" s="2">
         <v>2.67</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="20">
+      <c r="D20" s="14">
         <v>5</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>11564.8446842757</v>
       </c>
       <c r="F20" s="2">
@@ -20805,13 +24320,13 @@
       <c r="G20" s="2">
         <v>0.46</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>35</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="14">
         <v>5</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="3">
         <v>-71.829679999999996</v>
       </c>
       <c r="N20" s="2">
@@ -20820,15 +24335,15 @@
       <c r="O20" s="2">
         <v>2.81</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D21" s="20">
+      <c r="D21" s="14">
         <v>6</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>10848.381504188699</v>
       </c>
       <c r="F21" s="2">
@@ -20837,13 +24352,13 @@
       <c r="G21" s="2">
         <v>0.59</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>42</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="14">
         <v>6</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>-68.654340000000005</v>
       </c>
       <c r="N21" s="2">
@@ -20852,15 +24367,15 @@
       <c r="O21" s="2">
         <v>4.17</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="20">
+      <c r="D22" s="14">
         <v>7</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>10213.6971382715</v>
       </c>
       <c r="F22" s="2">
@@ -20869,13 +24384,13 @@
       <c r="G22" s="2">
         <v>0.6</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>35</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="14">
         <v>7</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3">
         <v>-67.010409999999993</v>
       </c>
       <c r="N22" s="2">
@@ -20884,15 +24399,15 @@
       <c r="O22" s="2">
         <v>4.8600000000000003</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D23" s="20">
+      <c r="D23" s="14">
         <v>8</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>9482.98325814704</v>
       </c>
       <c r="F23" s="2">
@@ -20901,13 +24416,13 @@
       <c r="G23" s="2">
         <v>0.39</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>22</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="14">
         <v>8</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="3">
         <v>-66.303240000000002</v>
       </c>
       <c r="N23" s="2">
@@ -20916,15 +24431,15 @@
       <c r="O23" s="2">
         <v>3.81</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D24" s="20">
+      <c r="D24" s="14">
         <v>9</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>9118.4488428805598</v>
       </c>
       <c r="F24" s="2">
@@ -20933,13 +24448,13 @@
       <c r="G24" s="2">
         <v>0.95</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>53</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="14">
         <v>9</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="3">
         <v>-64.932640000000006</v>
       </c>
       <c r="N24" s="2">
@@ -20948,15 +24463,15 @@
       <c r="O24" s="2">
         <v>7.2</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D25" s="20">
+      <c r="D25" s="14">
         <v>10</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>8727.9761141008403</v>
       </c>
       <c r="F25" s="2">
@@ -20965,13 +24480,13 @@
       <c r="G25" s="2">
         <v>0.42</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>20</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="14">
         <v>10</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="3">
         <v>-67.348519999999994</v>
       </c>
       <c r="N25" s="2">
@@ -20980,15 +24495,15 @@
       <c r="O25" s="2">
         <v>6.29</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D26" s="20">
+      <c r="D26" s="14">
         <v>11</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>8543.7806459966396</v>
       </c>
       <c r="F26" s="2">
@@ -20997,13 +24512,13 @@
       <c r="G26" s="2">
         <v>0.4</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>17</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="14">
         <v>11</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="3">
         <v>-66.100549999999998</v>
       </c>
       <c r="N26" s="2">
@@ -21012,15 +24527,15 @@
       <c r="O26" s="2">
         <v>10.16</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D27" s="20">
+      <c r="D27" s="14">
         <v>12</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>8460.0563423349304</v>
       </c>
       <c r="F27" s="2">
@@ -21029,13 +24544,13 @@
       <c r="G27" s="2">
         <v>0.66</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>27</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="14">
         <v>12</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="3">
         <v>-65.46557</v>
       </c>
       <c r="N27" s="2">
@@ -21044,39 +24559,39 @@
       <c r="O27" s="2">
         <v>11.25</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="21">
+      <c r="D28" s="15">
         <v>13</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="5">
         <v>8111.5020906930504</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>28.932400000000001</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>0.45</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="7">
         <v>17</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="15">
         <v>13</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="5">
         <v>-65.623670000000004</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="6">
         <v>23.950199999999999</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="6">
         <v>10.98</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="7">
         <v>1</v>
       </c>
     </row>
